--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titansax3\Documents\UiPath\GraphInteractionExercise\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UiPath\RPA0001_GraphInteractionUsers\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD49101-D854-493E-A4F7-2FF56073981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F8A53-710B-4FEC-AFCF-9B62D43C6CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -168,14 +168,17 @@
     <t>SecretClient</t>
   </si>
   <si>
-    <t>GraphUserId</t>
+    <t>RPA0001Queue</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,6 +208,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -237,6 +247,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,10 +565,10 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -614,7 +625,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -640,7 +653,9 @@
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B15" s="6"/>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -1639,7 +1654,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2802,7 +2817,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
